--- a/ToDoApp-Doc/Document/Diagram/UseCase/MyChart/MyChartSpecification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/MyChart/MyChartSpecification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355"/>
+    <workbookView windowWidth="20385" windowHeight="8355" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Add Task" sheetId="6" r:id="rId1"/>
@@ -52,8 +52,10 @@
     <t>System response</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào "My Chart"
+    <t xml:space="preserve"> - Người dùng nhấn vào "My Chart"
+- Hệ thống hiển thị Chart List
 - Người dùng chọn Task cần thêm vào My Chart
+- Hệ thống hiển thị Task được chọn và đổi màu
 - Người dùng nhấn đè Task và kéo thả vào Chart
 - Hệ thống thông báo Tasks được thêm vào My Chart thành công</t>
   </si>
@@ -98,7 +100,7 @@
     <t>Post-condition:</t>
   </si>
   <si>
-    <t>Task được kéo ra Chart</t>
+    <t>Task được kéo ra Chart và được lưu vào Chart chứa Task</t>
   </si>
   <si>
     <t>Move Task</t>
@@ -107,8 +109,9 @@
     <t>Chức năng di chuyển Task trong My Chart</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào
+    <t xml:space="preserve"> - Người dùng nhấn vào
 Task cần di chuyển
+- Hệ thống hiển thị Task được chọn và Task đổi màu
 - Người đè giữ Task và di
 chuyển đến nơi cần đặt
 - Hệ thống đặt Task vào
@@ -141,9 +144,12 @@
     <t>Chức năng thiết lập mối quan hệ giữa các Task trên My Chart</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào "My Chart"
+    <t xml:space="preserve"> - Người dùng nhấn vào "My Chart"
+- Hệ thống My Chart
 - Người dùng chọn Task cần thiết lập mối quan hệ với nhau
+- Task được chọn sẽ đổi màu
 - Người dùng nhấn đè Task này đến Task khác theo trình tự muốn thiết lập
+- Hệ thống xuất hiện đường nối giữa các Task
 - Người dùng nhấn "Save"
 - Hệ thống thông báo Tasks được  vào My Chart thành công</t>
   </si>
@@ -166,7 +172,7 @@
     <t>Phải hiển thị các Task có sẵn trên My Chart</t>
   </si>
   <si>
-    <t>Các Task được liên kết với nhau theo trình tự thời gian mà người dùng thiết lập</t>
+    <t>Các Task được liên kết với nhau theo trình tự thời gian mà người dùng thiết lập và được lưu vào Chart</t>
   </si>
   <si>
     <t>Change Status Task</t>
@@ -175,8 +181,10 @@
     <t>Chức năng thay đổi trạng thái Task trên My Chart</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào "My Chart"
+    <t xml:space="preserve"> - Người dùng nhấn vào "My Chart"
+- Hệ thống hiển thị My Chart
 - Người dùng chọn Task cần đổi trạng thái
+- Hệ thống hiển thị trạng thái được chọn
 - Người dùng nhấn chọn trạng thái cần thay đổi cho Task
 - Hệ thống thông báo trạng thái Task được thay đổi thành công</t>
   </si>
@@ -197,7 +205,7 @@
     <t>Phải hiển thị các Task có sẵn trạng thái trước đó trên My Chart</t>
   </si>
   <si>
-    <t>Trạng thái của Task trên My Chart được thay đổi</t>
+    <t>Trạng thái của Task trên My Chart được thay đổi và lưu trạng thái mới vào Chart</t>
   </si>
   <si>
     <t>Save Chart</t>
@@ -206,10 +214,14 @@
     <t>Chức năng lưu Chart</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào "My Chart"
+    <t xml:space="preserve"> - Người dùng nhấn vào "My Chart"
+- Hệ thống hiển thị My Chart
 - Người dùng nhấn tạo Chart
+- Hệ thống hiển thị New Chart
 - Người dùng kéo thả Task vào Chart mới tạo
+- Hệ thống hiển thị Task được kéo vào Chart
 - Người dùng nhấn vào chọn trạng thái cho Task trên Chart mới tạo
+- Hệ thống hiển thị Task mới có trạng thái
 - Người dùng nhấn lưu Chart
 - Hệ thống thông báo Chart được lưu thành công</t>
   </si>
@@ -240,7 +252,7 @@
     <t>Phải hiển thị các Task có sẵn trạng thái và đã thiết lập mối quan hệ</t>
   </si>
   <si>
-    <t>Hệ thống hiển thị Chart người dùng mới lưu</t>
+    <t>Hệ thống hiển thị Chart người dùng mới lưu. Đồng thời, Chart được lưu vào Chart List</t>
   </si>
   <si>
     <t>Delete Chart</t>
@@ -249,9 +261,10 @@
     <t>Chức năng xóa Chart</t>
   </si>
   <si>
-    <t>- Người dùng nhấn vào "My Chart"
+    <t xml:space="preserve"> - Người dùng nhấn vào "My Chart"
 - Hệ thống hiển thị Chart List
 - Người dùng chọn Chart muốn xóa
+- Hệ thống hiển thị Chart được chọn bị đổi màu
 - Người dùng nhấn nút "Delete"
 - Hệ thống thông báo bạn có chắc muốn xóa Chart đã chọn
 - Người dùng nhấn "OK"
@@ -276,7 +289,7 @@
     <t>Hệ thống phải có Chart được tạo sẵn trước đó</t>
   </si>
   <si>
-    <t>Hệ thống mất đi Chart người dùng mới xóa</t>
+    <t>Hệ thống mất đi Chart người dùng mới xóa. Đồng thời Chart bị xóa khỏi Chart List</t>
   </si>
   <si>
     <t>View Chart List</t>
@@ -306,10 +319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -344,7 +357,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +385,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -366,53 +455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,45 +480,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,21 +500,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -509,187 +522,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,17 +768,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,7 +796,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,16 +817,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,164 +854,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1019,6 +1032,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1293,8 +1312,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1304,14 +1323,14 @@
     <col min="4" max="4" width="44.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1339,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1348,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1357,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="141.75" spans="2:4">
+    <row r="7" ht="220" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1360,61 +1379,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" ht="31.5" spans="2:4">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" ht="31.5" spans="2:4">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -1428,8 +1455,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1439,14 +1466,14 @@
     <col min="4" max="4" width="43.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1482,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1491,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1500,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="110.25" spans="2:4">
+    <row r="7" ht="152" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1531,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1540,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1549,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1558,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1567,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1575,8 +1602,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1585,14 +1612,14 @@
     <col min="3" max="4" width="43.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1628,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1637,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1646,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="189" spans="2:4">
+    <row r="7" ht="290" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1641,7 +1668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1677,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1686,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1695,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1677,7 +1704,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1713,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1721,8 +1748,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1732,14 +1759,14 @@
     <col min="4" max="4" width="43.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1748,7 +1775,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1784,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1793,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="157.5" spans="2:4">
+    <row r="7" ht="249" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1788,7 +1815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1797,7 +1824,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1833,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1842,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1851,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1860,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1867,8 +1894,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1878,14 +1905,14 @@
     <col min="4" max="4" width="43.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +1921,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1930,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1939,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1923,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="204.75" spans="2:4">
+    <row r="7" ht="349" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1943,7 +1970,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1952,7 +1979,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1961,7 +1988,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +1997,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +2006,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2013,8 +2040,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -2024,14 +2051,14 @@
     <col min="4" max="4" width="43.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2067,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2049,7 +2076,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2085,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="141.75" spans="2:4">
+    <row r="7" ht="204" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
@@ -2080,7 +2107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2089,7 +2116,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2098,7 +2125,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2134,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2116,7 +2143,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2125,7 +2152,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2187,8 @@
   </sheetPr>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -2171,14 +2198,14 @@
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" ht="32" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2187,7 +2214,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" ht="32" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2196,7 +2223,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" ht="32" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2232,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="32" customHeight="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="47.25" spans="2:4">
+    <row r="7" ht="70" customHeight="1" spans="2:4">
       <c r="B7" s="5" t="s">
         <v>67</v>
       </c>
@@ -2227,7 +2254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2236,7 +2263,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" ht="32" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2245,7 +2272,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" ht="32" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2254,7 +2281,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2290,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" ht="32" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2272,7 +2299,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" ht="32" customHeight="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
